--- a/Project Files/Forms System Final/exports/jh_sf10.xlsx
+++ b/Project Files/Forms System Final/exports/jh_sf10.xlsx
@@ -375,7 +375,7 @@
     <t>PHIL REY</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jr</t>
+    <t>Jr</t>
   </si>
   <si>
     <t>ESTRELLA</t>
